--- a/public/sampleDrivers.xlsx
+++ b/public/sampleDrivers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Sr.</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>ali123@ali.com</t>
-  </si>
-  <si>
-    <t>Note:All fields are required for every item.</t>
   </si>
 </sst>
 </file>
@@ -545,17 +542,12 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A10:D10"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
